--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.099100000000004</v>
+        <v>6.262800000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.1612</v>
+        <v>5.673200000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.90139999999999</v>
+        <v>-13.48319999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.3256</v>
+        <v>5.054499999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -726,10 +726,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.899099999999999</v>
+        <v>9.079499999999998</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.69740000000001</v>
+        <v>-11.95670000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.6625</v>
+        <v>-11.84920000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.025599999999997</v>
+        <v>8.945500000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.3824</v>
+        <v>-13.60149999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.223100000000001</v>
+        <v>5.4453</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.566000000000003</v>
+        <v>5.061200000000007</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.42849999999999</v>
+        <v>-12.25829999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.7884</v>
+        <v>-13.9436</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.058700000000003</v>
+        <v>5.142900000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.35940000000001</v>
+        <v>-13.45780000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.33690000000002</v>
+        <v>-13.54560000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.863999999999997</v>
+        <v>9.0677</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.63009999999999</v>
+        <v>-13.38249999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.2448</v>
+        <v>-11.91449999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.70779999999999</v>
+        <v>-13.90509999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.83369999999999</v>
+        <v>-10.81779999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.842900000000002</v>
+        <v>5.802</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.9427</v>
+        <v>-10.9721</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.2011</v>
+        <v>-13.35299999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,10 +1230,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.043399999999997</v>
+        <v>4.941399999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.62019999999999</v>
+        <v>-13.56079999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.779199999999996</v>
+        <v>4.705699999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.3608</v>
+        <v>5.8975</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.586799999999993</v>
+        <v>5.593399999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.6188</v>
+        <v>-12.37869999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.23350000000001</v>
+        <v>-11.1872</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.404700000000002</v>
+        <v>9.245500000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.628099999999997</v>
+        <v>5.903999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.6242</v>
+        <v>-13.59509999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.4687</v>
+        <v>-12.4921</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.37439999999999</v>
+        <v>-13.08339999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.226600000000004</v>
+        <v>6.246500000000003</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.644099999999997</v>
+        <v>5.521799999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.454800000000003</v>
+        <v>4.931800000000004</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.4034</v>
+        <v>-13.4079</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.145400000000004</v>
+        <v>5.028000000000003</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
